--- a/Data/StormIntervals_filtered.xlsx
+++ b/Data/StormIntervals_filtered.xlsx
@@ -382,7 +382,7 @@
   <dimension ref="A1:D94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,7 +634,7 @@
         <v>41052.322916666664</v>
       </c>
       <c r="C18" s="2">
-        <v>41052.583333333336</v>
+        <v>41052.458333333336</v>
       </c>
       <c r="D18">
         <v>29.75</v>
